--- a/1_scenario/data.xlsx
+++ b/1_scenario/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Work Folders\Documents\GitHub\VTT\1_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D84EF75-79D7-4A07-8988-C1765DD8F54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA09F9-79D6-4BC6-AF15-5AA9B1532490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overiview" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Blad1" sheetId="3" r:id="rId3"/>
     <sheet name="Pendeltåg_stationer_2015" sheetId="4" r:id="rId4"/>
     <sheet name="Nynäshamn-Bålsta_2015" sheetId="5" r:id="rId5"/>
-    <sheet name="OD_delay" sheetId="10" r:id="rId6"/>
+    <sheet name="Delay" sheetId="10" r:id="rId6"/>
     <sheet name="OD_pax" sheetId="12" r:id="rId7"/>
     <sheet name="OD_travel_time" sheetId="13" r:id="rId8"/>
     <sheet name="OD_distances" sheetId="14" r:id="rId9"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="177">
   <si>
     <t>Data</t>
   </si>
@@ -579,19 +579,25 @@
     <t>avg väntetid</t>
   </si>
   <si>
-    <t>Avg delays (seconds)</t>
-  </si>
-  <si>
     <t>Dwell time</t>
   </si>
   <si>
     <t>restid (andra riktning)</t>
+  </si>
+  <si>
+    <t>Delay probability</t>
+  </si>
+  <si>
+    <t>Avg delays (minutes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -684,10 +690,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,19 +1345,19 @@
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1799,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAE97EC-3B17-4B16-9B22-561DF81BD648}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1827,10 +1834,10 @@
         <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O1" t="s">
         <v>167</v>
@@ -2714,1374 +2721,332 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A8219F-1245-4D30-856A-AF63E6D2D99E}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" t="s">
-        <v>162</v>
-      </c>
-      <c r="U1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>30</v>
-      </c>
-      <c r="L2">
-        <v>30</v>
-      </c>
-      <c r="M2">
-        <v>30</v>
-      </c>
-      <c r="N2">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2">
-        <v>30</v>
-      </c>
-      <c r="Q2">
-        <v>30</v>
-      </c>
-      <c r="R2">
-        <v>30</v>
-      </c>
-      <c r="S2">
-        <v>30</v>
-      </c>
-      <c r="T2">
-        <v>30</v>
-      </c>
-      <c r="U2">
-        <v>30</v>
-      </c>
-      <c r="V2">
-        <v>30</v>
-      </c>
-      <c r="W2">
-        <v>30</v>
-      </c>
-      <c r="X2">
-        <v>30</v>
-      </c>
-      <c r="Y2">
-        <v>30</v>
-      </c>
-      <c r="Z2">
-        <v>30</v>
-      </c>
-      <c r="AA2">
-        <v>30</v>
-      </c>
-      <c r="AB2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <v>30</v>
-      </c>
-      <c r="O3">
-        <v>30</v>
-      </c>
-      <c r="P3">
-        <v>30</v>
-      </c>
-      <c r="Q3">
-        <v>30</v>
-      </c>
-      <c r="R3">
-        <v>30</v>
-      </c>
-      <c r="S3">
-        <v>30</v>
-      </c>
-      <c r="T3">
-        <v>30</v>
-      </c>
-      <c r="U3">
-        <v>30</v>
-      </c>
-      <c r="V3">
-        <v>30</v>
-      </c>
-      <c r="W3">
-        <v>30</v>
-      </c>
-      <c r="X3">
-        <v>30</v>
-      </c>
-      <c r="Y3">
-        <v>30</v>
-      </c>
-      <c r="Z3">
-        <v>30</v>
-      </c>
-      <c r="AA3">
-        <v>30</v>
-      </c>
-      <c r="AB3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
-      <c r="N4">
-        <v>30</v>
-      </c>
-      <c r="O4">
-        <v>30</v>
-      </c>
-      <c r="P4">
-        <v>30</v>
-      </c>
-      <c r="Q4">
-        <v>30</v>
-      </c>
-      <c r="R4">
-        <v>30</v>
-      </c>
-      <c r="S4">
-        <v>30</v>
-      </c>
-      <c r="T4">
-        <v>30</v>
-      </c>
-      <c r="U4">
-        <v>30</v>
-      </c>
-      <c r="V4">
-        <v>30</v>
-      </c>
-      <c r="W4">
-        <v>30</v>
-      </c>
-      <c r="X4">
-        <v>30</v>
-      </c>
-      <c r="Y4">
-        <v>30</v>
-      </c>
-      <c r="Z4">
-        <v>30</v>
-      </c>
-      <c r="AA4">
-        <v>30</v>
-      </c>
-      <c r="AB4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>0.70992366412213737</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.5381679389312978E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-      <c r="L5">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>30</v>
-      </c>
-      <c r="O5">
-        <v>30</v>
-      </c>
-      <c r="P5">
-        <v>30</v>
-      </c>
-      <c r="Q5">
-        <v>30</v>
-      </c>
-      <c r="R5">
-        <v>30</v>
-      </c>
-      <c r="S5">
-        <v>30</v>
-      </c>
-      <c r="T5">
-        <v>30</v>
-      </c>
-      <c r="U5">
-        <v>30</v>
-      </c>
-      <c r="V5">
-        <v>30</v>
-      </c>
-      <c r="W5">
-        <v>30</v>
-      </c>
-      <c r="X5">
-        <v>30</v>
-      </c>
-      <c r="Y5">
-        <v>30</v>
-      </c>
-      <c r="Z5">
-        <v>30</v>
-      </c>
-      <c r="AA5">
-        <v>30</v>
-      </c>
-      <c r="AB5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>1.0379069989496801</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.4469588465578155E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>30</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>30</v>
-      </c>
-      <c r="O6">
-        <v>30</v>
-      </c>
-      <c r="P6">
-        <v>30</v>
-      </c>
-      <c r="Q6">
-        <v>30</v>
-      </c>
-      <c r="R6">
-        <v>30</v>
-      </c>
-      <c r="S6">
-        <v>30</v>
-      </c>
-      <c r="T6">
-        <v>30</v>
-      </c>
-      <c r="U6">
-        <v>30</v>
-      </c>
-      <c r="V6">
-        <v>30</v>
-      </c>
-      <c r="W6">
-        <v>30</v>
-      </c>
-      <c r="X6">
-        <v>30</v>
-      </c>
-      <c r="Y6">
-        <v>30</v>
-      </c>
-      <c r="Z6">
-        <v>30</v>
-      </c>
-      <c r="AA6">
-        <v>30</v>
-      </c>
-      <c r="AB6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>0.88044161206354909</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3.5275109954223137E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>30</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7">
-        <v>30</v>
-      </c>
-      <c r="O7">
-        <v>30</v>
-      </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-      <c r="Q7">
-        <v>30</v>
-      </c>
-      <c r="R7">
-        <v>30</v>
-      </c>
-      <c r="S7">
-        <v>30</v>
-      </c>
-      <c r="T7">
-        <v>30</v>
-      </c>
-      <c r="U7">
-        <v>30</v>
-      </c>
-      <c r="V7">
-        <v>30</v>
-      </c>
-      <c r="W7">
-        <v>30</v>
-      </c>
-      <c r="X7">
-        <v>30</v>
-      </c>
-      <c r="Y7">
-        <v>30</v>
-      </c>
-      <c r="Z7">
-        <v>30</v>
-      </c>
-      <c r="AA7">
-        <v>30</v>
-      </c>
-      <c r="AB7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>1.3060379735444974</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4.3642580761270582E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="O8">
-        <v>30</v>
-      </c>
-      <c r="P8">
-        <v>30</v>
-      </c>
-      <c r="Q8">
-        <v>30</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
-        <v>30</v>
-      </c>
-      <c r="T8">
-        <v>30</v>
-      </c>
-      <c r="U8">
-        <v>30</v>
-      </c>
-      <c r="V8">
-        <v>30</v>
-      </c>
-      <c r="W8">
-        <v>30</v>
-      </c>
-      <c r="X8">
-        <v>30</v>
-      </c>
-      <c r="Y8">
-        <v>30</v>
-      </c>
-      <c r="Z8">
-        <v>30</v>
-      </c>
-      <c r="AA8">
-        <v>30</v>
-      </c>
-      <c r="AB8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9">
-        <v>30</v>
-      </c>
-      <c r="O9">
-        <v>30</v>
-      </c>
-      <c r="P9">
-        <v>30</v>
-      </c>
-      <c r="Q9">
-        <v>30</v>
-      </c>
-      <c r="R9">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>30</v>
-      </c>
-      <c r="T9">
-        <v>30</v>
-      </c>
-      <c r="U9">
-        <v>30</v>
-      </c>
-      <c r="V9">
-        <v>30</v>
-      </c>
-      <c r="W9">
-        <v>30</v>
-      </c>
-      <c r="X9">
-        <v>30</v>
-      </c>
-      <c r="Y9">
-        <v>30</v>
-      </c>
-      <c r="Z9">
-        <v>30</v>
-      </c>
-      <c r="AA9">
-        <v>30</v>
-      </c>
-      <c r="AB9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>30</v>
-      </c>
-      <c r="M10">
-        <v>30</v>
-      </c>
-      <c r="N10">
-        <v>30</v>
-      </c>
-      <c r="O10">
-        <v>30</v>
-      </c>
-      <c r="P10">
-        <v>30</v>
-      </c>
-      <c r="Q10">
-        <v>30</v>
-      </c>
-      <c r="R10">
-        <v>30</v>
-      </c>
-      <c r="S10">
-        <v>30</v>
-      </c>
-      <c r="T10">
-        <v>30</v>
-      </c>
-      <c r="U10">
-        <v>30</v>
-      </c>
-      <c r="V10">
-        <v>30</v>
-      </c>
-      <c r="W10">
-        <v>30</v>
-      </c>
-      <c r="X10">
-        <v>30</v>
-      </c>
-      <c r="Y10">
-        <v>30</v>
-      </c>
-      <c r="Z10">
-        <v>30</v>
-      </c>
-      <c r="AA10">
-        <v>30</v>
-      </c>
-      <c r="AB10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>1.705172269259787</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7.4775756559644566E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
-      <c r="N11">
-        <v>30</v>
-      </c>
-      <c r="O11">
-        <v>30</v>
-      </c>
-      <c r="P11">
-        <v>30</v>
-      </c>
-      <c r="Q11">
-        <v>30</v>
-      </c>
-      <c r="R11">
-        <v>30</v>
-      </c>
-      <c r="S11">
-        <v>30</v>
-      </c>
-      <c r="T11">
-        <v>30</v>
-      </c>
-      <c r="U11">
-        <v>30</v>
-      </c>
-      <c r="V11">
-        <v>30</v>
-      </c>
-      <c r="W11">
-        <v>30</v>
-      </c>
-      <c r="X11">
-        <v>30</v>
-      </c>
-      <c r="Y11">
-        <v>30</v>
-      </c>
-      <c r="Z11">
-        <v>30</v>
-      </c>
-      <c r="AA11">
-        <v>30</v>
-      </c>
-      <c r="AB11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>1.3602728942534767</v>
+      </c>
+      <c r="C11" s="10">
+        <v>6.2013469780460073E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>149</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>30</v>
-      </c>
-      <c r="N12">
-        <v>30</v>
-      </c>
-      <c r="O12">
-        <v>30</v>
-      </c>
-      <c r="P12">
-        <v>30</v>
-      </c>
-      <c r="Q12">
-        <v>30</v>
-      </c>
-      <c r="R12">
-        <v>30</v>
-      </c>
-      <c r="S12">
-        <v>30</v>
-      </c>
-      <c r="T12">
-        <v>30</v>
-      </c>
-      <c r="U12">
-        <v>30</v>
-      </c>
-      <c r="V12">
-        <v>30</v>
-      </c>
-      <c r="W12">
-        <v>30</v>
-      </c>
-      <c r="X12">
-        <v>30</v>
-      </c>
-      <c r="Y12">
-        <v>30</v>
-      </c>
-      <c r="Z12">
-        <v>30</v>
-      </c>
-      <c r="AA12">
-        <v>30</v>
-      </c>
-      <c r="AB12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>1.7549727160711142</v>
+      </c>
+      <c r="C12" s="10">
+        <v>7.7979229008977288E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>163</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>30</v>
-      </c>
-      <c r="O13">
-        <v>30</v>
-      </c>
-      <c r="P13">
-        <v>30</v>
-      </c>
-      <c r="Q13">
-        <v>30</v>
-      </c>
-      <c r="R13">
-        <v>30</v>
-      </c>
-      <c r="S13">
-        <v>30</v>
-      </c>
-      <c r="T13">
-        <v>30</v>
-      </c>
-      <c r="U13">
-        <v>30</v>
-      </c>
-      <c r="V13">
-        <v>30</v>
-      </c>
-      <c r="W13">
-        <v>30</v>
-      </c>
-      <c r="X13">
-        <v>30</v>
-      </c>
-      <c r="Y13">
-        <v>30</v>
-      </c>
-      <c r="Z13">
-        <v>30</v>
-      </c>
-      <c r="AA13">
-        <v>30</v>
-      </c>
-      <c r="AB13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>2.401430930104568</v>
+      </c>
+      <c r="C13" s="10">
+        <v>8.3544303797468356E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>164</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>30</v>
-      </c>
-      <c r="P14">
-        <v>30</v>
-      </c>
-      <c r="Q14">
-        <v>30</v>
-      </c>
-      <c r="R14">
-        <v>30</v>
-      </c>
-      <c r="S14">
-        <v>30</v>
-      </c>
-      <c r="T14">
-        <v>30</v>
-      </c>
-      <c r="U14">
-        <v>30</v>
-      </c>
-      <c r="V14">
-        <v>30</v>
-      </c>
-      <c r="W14">
-        <v>30</v>
-      </c>
-      <c r="X14">
-        <v>30</v>
-      </c>
-      <c r="Y14">
-        <v>30</v>
-      </c>
-      <c r="Z14">
-        <v>30</v>
-      </c>
-      <c r="AA14">
-        <v>30</v>
-      </c>
-      <c r="AB14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>30</v>
-      </c>
-      <c r="Q15">
-        <v>30</v>
-      </c>
-      <c r="R15">
-        <v>30</v>
-      </c>
-      <c r="S15">
-        <v>30</v>
-      </c>
-      <c r="T15">
-        <v>30</v>
-      </c>
-      <c r="U15">
-        <v>30</v>
-      </c>
-      <c r="V15">
-        <v>30</v>
-      </c>
-      <c r="W15">
-        <v>30</v>
-      </c>
-      <c r="X15">
-        <v>30</v>
-      </c>
-      <c r="Y15">
-        <v>30</v>
-      </c>
-      <c r="Z15">
-        <v>30</v>
-      </c>
-      <c r="AA15">
-        <v>30</v>
-      </c>
-      <c r="AB15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>1.8781790207258575</v>
+      </c>
+      <c r="C15" s="10">
+        <v>8.5437596162548646E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>30</v>
-      </c>
-      <c r="R16">
-        <v>30</v>
-      </c>
-      <c r="S16">
-        <v>30</v>
-      </c>
-      <c r="T16">
-        <v>30</v>
-      </c>
-      <c r="U16">
-        <v>30</v>
-      </c>
-      <c r="V16">
-        <v>30</v>
-      </c>
-      <c r="W16">
-        <v>30</v>
-      </c>
-      <c r="X16">
-        <v>30</v>
-      </c>
-      <c r="Y16">
-        <v>30</v>
-      </c>
-      <c r="Z16">
-        <v>30</v>
-      </c>
-      <c r="AA16">
-        <v>30</v>
-      </c>
-      <c r="AB16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>2.0885899814471243</v>
+      </c>
+      <c r="C16" s="10">
+        <v>9.1836734693877556E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>30</v>
-      </c>
-      <c r="S17">
-        <v>30</v>
-      </c>
-      <c r="T17">
-        <v>30</v>
-      </c>
-      <c r="U17">
-        <v>30</v>
-      </c>
-      <c r="V17">
-        <v>30</v>
-      </c>
-      <c r="W17">
-        <v>30</v>
-      </c>
-      <c r="X17">
-        <v>30</v>
-      </c>
-      <c r="Y17">
-        <v>30</v>
-      </c>
-      <c r="Z17">
-        <v>30</v>
-      </c>
-      <c r="AA17">
-        <v>30</v>
-      </c>
-      <c r="AB17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>2.6096566717999821</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.10145846544071022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>123</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>30</v>
-      </c>
-      <c r="T18">
-        <v>30</v>
-      </c>
-      <c r="U18">
-        <v>30</v>
-      </c>
-      <c r="V18">
-        <v>30</v>
-      </c>
-      <c r="W18">
-        <v>30</v>
-      </c>
-      <c r="X18">
-        <v>30</v>
-      </c>
-      <c r="Y18">
-        <v>30</v>
-      </c>
-      <c r="Z18">
-        <v>30</v>
-      </c>
-      <c r="AA18">
-        <v>30</v>
-      </c>
-      <c r="AB18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>2.0805326569435638</v>
+      </c>
+      <c r="C18" s="10">
+        <v>8.922909683848175E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>30</v>
-      </c>
-      <c r="U19">
-        <v>30</v>
-      </c>
-      <c r="V19">
-        <v>30</v>
-      </c>
-      <c r="W19">
-        <v>30</v>
-      </c>
-      <c r="X19">
-        <v>30</v>
-      </c>
-      <c r="Y19">
-        <v>30</v>
-      </c>
-      <c r="Z19">
-        <v>30</v>
-      </c>
-      <c r="AA19">
-        <v>30</v>
-      </c>
-      <c r="AB19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>30</v>
-      </c>
-      <c r="V20">
-        <v>30</v>
-      </c>
-      <c r="W20">
-        <v>30</v>
-      </c>
-      <c r="X20">
-        <v>30</v>
-      </c>
-      <c r="Y20">
-        <v>30</v>
-      </c>
-      <c r="Z20">
-        <v>30</v>
-      </c>
-      <c r="AA20">
-        <v>30</v>
-      </c>
-      <c r="AB20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>30</v>
-      </c>
-      <c r="W21">
-        <v>30</v>
-      </c>
-      <c r="X21">
-        <v>30</v>
-      </c>
-      <c r="Y21">
-        <v>30</v>
-      </c>
-      <c r="Z21">
-        <v>30</v>
-      </c>
-      <c r="AA21">
-        <v>30</v>
-      </c>
-      <c r="AB21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>1.6257865673558496</v>
+      </c>
+      <c r="C21" s="10">
+        <v>6.6777963272120197E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>30</v>
-      </c>
-      <c r="X22">
-        <v>30</v>
-      </c>
-      <c r="Y22">
-        <v>30</v>
-      </c>
-      <c r="Z22">
-        <v>30</v>
-      </c>
-      <c r="AA22">
-        <v>30</v>
-      </c>
-      <c r="AB22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>1.3290941107415379</v>
+      </c>
+      <c r="C22" s="10">
+        <v>5.605556642535707E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>125</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>30</v>
-      </c>
-      <c r="Y23">
-        <v>30</v>
-      </c>
-      <c r="Z23">
-        <v>30</v>
-      </c>
-      <c r="AA23">
-        <v>30</v>
-      </c>
-      <c r="AB23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>1.3936846221527031</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5.7776908788737903E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>30</v>
-      </c>
-      <c r="Z24">
-        <v>30</v>
-      </c>
-      <c r="AA24">
-        <v>30</v>
-      </c>
-      <c r="AB24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>1.5894654549008111</v>
+      </c>
+      <c r="C24" s="10">
+        <v>7.0556044170819898E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>30</v>
-      </c>
-      <c r="AA25">
-        <v>30</v>
-      </c>
-      <c r="AB25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>1.3786483839373163</v>
+      </c>
+      <c r="C25" s="10">
+        <v>7.0225269343780608E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>138</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>30</v>
-      </c>
-      <c r="AB26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>122</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>1.9477641868859032</v>
+      </c>
+      <c r="C27" s="10">
+        <v>7.5195508321636254E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>139</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A28">
+  <conditionalFormatting sqref="A2:A28 B1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:AB1">
+  <conditionalFormatting sqref="C1:AB1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18018,7 +16983,7 @@
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>420</v>
       </c>
       <c r="C37">

--- a/1_scenario/data.xlsx
+++ b/1_scenario/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Work Folders\Documents\GitHub\VTT\1_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA09F9-79D6-4BC6-AF15-5AA9B1532490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02632B2-0807-461A-8C3D-6AF9A0007F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,9 +546,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>Vhn</t>
-  </si>
-  <si>
     <t>Åbe</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>Avg delays (minutes)</t>
+  </si>
+  <si>
+    <t>Vhe</t>
   </si>
 </sst>
 </file>
@@ -691,10 +691,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,19 +1345,19 @@
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49FDEA-D892-43BB-90F1-2AF501FEC6D7}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1762,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>114</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>115</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1806,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAE97EC-3B17-4B16-9B22-561DF81BD648}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,34 +1822,34 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
         <v>116</v>
       </c>
       <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
-      </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P1" t="s">
         <v>116</v>
       </c>
       <c r="Q1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" t="s">
         <v>169</v>
-      </c>
-      <c r="R1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P11" t="s">
         <v>148</v>
@@ -2206,7 +2206,7 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2224,7 +2224,7 @@
         <v>112</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -2238,7 +2238,7 @@
         <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -2256,7 +2256,7 @@
         <v>113</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -2430,7 +2430,7 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2448,7 +2448,7 @@
         <v>111</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -2590,7 +2590,7 @@
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2608,7 +2608,7 @@
         <v>114</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>15</v>
@@ -2723,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A8219F-1245-4D30-856A-AF63E6D2D99E}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,310 +2736,310 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.1</v>
+      <c r="B2" s="9">
+        <v>0.68658500149387514</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2.011751817548053E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.1</v>
+      <c r="B3" s="9">
+        <v>1.1549649673834259</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5.5810582266247889E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="10">
-        <v>0.70992366412213737</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2.5381679389312978E-2</v>
+      <c r="B4" s="9">
+        <v>1.1349912034615568</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5.5204222338452763E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="10">
-        <v>1.0379069989496801</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3.4469588465578155E-2</v>
+      <c r="B5" s="9">
+        <v>1.3176861071597914</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6.083451872925557E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="10">
-        <v>0.88044161206354909</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3.5275109954223137E-2</v>
+      <c r="B6" s="9">
+        <v>1.3030985656491356</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6.4178006620080913E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="10">
-        <v>1.3060379735444974</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4.3642580761270582E-2</v>
+      <c r="B7" s="9">
+        <v>1.9156610529107545</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7.5763603412456346E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.1</v>
+      <c r="B8" s="9">
+        <v>1.6876438005965062</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7.0856412441414565E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="10">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.1</v>
+      <c r="B9" s="9">
+        <v>1.309464508094645</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6.1270236612702367E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="10">
-        <v>1.705172269259787</v>
-      </c>
-      <c r="C10" s="10">
-        <v>7.4775756559644566E-2</v>
+      <c r="B10" s="9">
+        <v>1.6759290118313614</v>
+      </c>
+      <c r="C10" s="9">
+        <v>7.3362772871188142E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="10">
-        <v>1.3602728942534767</v>
-      </c>
-      <c r="C11" s="10">
-        <v>6.2013469780460073E-2</v>
+      <c r="B11" s="9">
+        <v>1.1596034380052762</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5.6122883158880095E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="10">
-        <v>1.7549727160711142</v>
-      </c>
-      <c r="C12" s="10">
-        <v>7.7979229008977288E-2</v>
+      <c r="B12" s="9">
+        <v>1.6207415691672402</v>
+      </c>
+      <c r="C12" s="9">
+        <v>7.1274948382656578E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2.401430930104568</v>
-      </c>
-      <c r="C13" s="10">
-        <v>8.3544303797468356E-2</v>
+        <v>162</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1.7430379201997159</v>
+      </c>
+      <c r="C13" s="9">
+        <v>7.0632290276761503E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.1</v>
+        <v>163</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.2884893030581441</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5.9150369689810564E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="10">
-        <v>1.8781790207258575</v>
-      </c>
-      <c r="C15" s="10">
-        <v>8.5437596162548646E-2</v>
+      <c r="B15" s="9">
+        <v>1.325777519967873</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5.72040515818125E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="10">
-        <v>2.0885899814471243</v>
-      </c>
-      <c r="C16" s="10">
-        <v>9.1836734693877556E-2</v>
+      <c r="B16" s="9">
+        <v>1.3192036836403034</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5.8098591549295774E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="10">
-        <v>2.6096566717999821</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.10145846544071022</v>
+      <c r="B17" s="9">
+        <v>1.5689616706081835</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6.2870911605907812E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="10">
-        <v>2.0805326569435638</v>
-      </c>
-      <c r="C18" s="10">
-        <v>8.922909683848175E-2</v>
+      <c r="B18" s="9">
+        <v>1.3149247734273852</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5.6118576722175094E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.1</v>
+      <c r="B19" s="9">
+        <v>1.2814467515070329</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5.3806653270819377E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="10">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.1</v>
+        <v>176</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.882631285952867</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3.7066246056782333E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="10">
-        <v>1.6257865673558496</v>
-      </c>
-      <c r="C21" s="10">
-        <v>6.6777963272120197E-2</v>
+      <c r="B21" s="9">
+        <v>1.4263928112965341</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4.7753530166880616E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="10">
-        <v>1.3290941107415379</v>
-      </c>
-      <c r="C22" s="10">
-        <v>5.605556642535707E-2</v>
+      <c r="B22" s="9">
+        <v>1.2480222467277173</v>
+      </c>
+      <c r="C22" s="9">
+        <v>4.3294817087788276E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="10">
-        <v>1.3936846221527031</v>
-      </c>
-      <c r="C23" s="10">
-        <v>5.7776908788737903E-2</v>
+      <c r="B23" s="9">
+        <v>1.521489147621101</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4.6044751090029229E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="10">
-        <v>1.5894654549008111</v>
-      </c>
-      <c r="C24" s="10">
-        <v>7.0556044170819898E-2</v>
+      <c r="B24" s="9">
+        <v>1.3896389926266399</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4.7400172364263145E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1.3786483839373163</v>
-      </c>
-      <c r="C25" s="10">
-        <v>7.0225269343780608E-2</v>
+        <v>164</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1.3409014705177946</v>
+      </c>
+      <c r="C25" s="9">
+        <v>4.6318915553000911E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="10">
-        <v>6.6</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.6</v>
+      <c r="B26" s="9">
+        <v>1.2593661328331649</v>
+      </c>
+      <c r="C26" s="9">
+        <v>4.4149473380464578E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="10">
-        <v>1.9477641868859032</v>
-      </c>
-      <c r="C27" s="10">
-        <v>7.5195508321636254E-2</v>
+      <c r="B27" s="9">
+        <v>1.4119759316770186</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4.3623835403726711E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="10">
-        <v>2</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.1</v>
+      <c r="B28" s="9">
+        <v>0.27721745687623717</v>
+      </c>
+      <c r="C28" s="9">
+        <v>8.3891035912904144E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3057,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D976469E-44FC-46F3-A8E2-350F72DF2C87}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,19 +3203,19 @@
         <v>161</v>
       </c>
       <c r="AV1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW1" t="s">
         <v>162</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>163</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>164</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>165</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -10488,7 +10488,7 @@
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49">
         <v>586</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B50">
         <v>592</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -11120,7 +11120,7 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52">
         <v>186</v>
@@ -11285,8 +11285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D47162-F3AA-457D-B27A-35888FAA503E}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
